--- a/ig/ch-emed/StructureDefinition-ch-emed-medicationadministration-list.xlsx
+++ b/ig/ch-emed/StructureDefinition-ch-emed-medicationadministration-list.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T19:08:44+00:00</t>
+    <t>2024-12-17T21:35:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ch-emed/StructureDefinition-ch-emed-medicationadministration-list.xlsx
+++ b/ig/ch-emed/StructureDefinition-ch-emed-medicationadministration-list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3392" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3392" uniqueCount="545">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>6.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:35:32+00:00</t>
+    <t>2025-05-22T07:37:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1656,20 +1656,16 @@
     <t>Amount of medication administered</t>
   </si>
   <si>
-    <t>The comparator is not used on a SimpleQuantity</t>
-  </si>
-  <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
-  </si>
-  <si>
-    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
-  </si>
-  <si>
-    <t>SN (see also Range) or CQ</t>
+    <t>The amount of the medication given at one administration event.   Use this value when the administration is essentially an instantaneous event such as a swallowing a tablet or giving an injection.</t>
+  </si>
+  <si>
+    <t>If the administration is not instantaneous (rate is present), this can be specified to convey the total amount administered over period of time of a single administration.</t>
+  </si>
+  <si>
+    <t>.doseQuantity</t>
+  </si>
+  <si>
+    <t>RXA-6 Administered Amount / RXA-7 Administered Units</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.rate[x]</t>
@@ -2049,17 +2045,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.66015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="58.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.47265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.2890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="50.2890625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.40625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="106.70703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="91.48046875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2068,27 +2064,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.77734375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="45.6171875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.390625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="39.109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="101.08984375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="22.50390625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="245.42578125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="86.66796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="19.29296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -12453,22 +12449,22 @@
         <v>89</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="AJ89" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL89" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="AK89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL89" t="s" s="2">
+      <c r="AM89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN89" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>80</v>
@@ -12476,10 +12472,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12502,16 +12498,16 @@
         <v>80</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -12561,7 +12557,7 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>81</v>
@@ -12579,13 +12575,13 @@
         <v>80</v>
       </c>
       <c r="AL90" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN90" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>80</v>
@@ -12593,10 +12589,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12619,16 +12615,16 @@
         <v>80</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -12678,7 +12674,7 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>81</v>
@@ -12696,7 +12692,7 @@
         <v>80</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>80</v>

--- a/ig/ch-emed/StructureDefinition-ch-emed-medicationadministration-list.xlsx
+++ b/ig/ch-emed/StructureDefinition-ch-emed-medicationadministration-list.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$83</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3392" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3095" uniqueCount="493">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0-ballot</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T07:37:19+00:00</t>
+    <t>2025-12-16T11:14:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -370,7 +370,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -553,463 +553,306 @@
     <t>MedicationAdministration.identifier</t>
   </si>
   <si>
+    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-uuid-identifier}
+</t>
+  </si>
+  <si>
+    <t>MedicationAdministration Identifier</t>
+  </si>
+  <si>
+    <t>Identifiers associated with this Medication Administration that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.</t>
+  </si>
+  <si>
+    <t>This is a business identifier, not a resource identifier.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.instantiates</t>
+  </si>
+  <si>
+    <t>Instantiates protocol or definition</t>
+  </si>
+  <si>
+    <t>A protocol, guideline, orderset, or other definition that was adhered to in whole or in part by this event.</t>
+  </si>
+  <si>
+    <t>Event.instantiates</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=DEFN].target[classCode=unspecified]</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|Procedure|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Part of referenced event</t>
+  </si>
+  <si>
+    <t>A larger event of which this particular event is a component or step.</t>
+  </si>
+  <si>
+    <t>Event.partOf</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=COMP]/target[classCode=SBADM or PROC,moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.status</t>
+  </si>
+  <si>
+    <t>in-progress | not-done | on-hold | completed | entered-in-error | stopped | unknown</t>
+  </si>
+  <si>
+    <t>Will generally be set to show that the administration has been completed.  For some long running administrations such as infusions, it is possible for an administration to be started but not completed or it may be paused while some other process is under way.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>A set of codes indicating the current status of a MedicationAdministration.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-admin-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>RXA-20-Completion Status</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.statusReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Reason administration not performed</t>
+  </si>
+  <si>
+    <t>A code indicating why the administration was not performed.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>A set of codes indicating the reason why the MedicationAdministration is negated.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/reason-medication-not-given-codes|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.statusReason</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=RSON]/target[classCode=OBS,moodCode=EVN, code="reason not given"].value</t>
+  </si>
+  <si>
+    <t>RXA-9-Administration Notes / RXA-18 Substance/Treatment Refusal Reason</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.category</t>
+  </si>
+  <si>
+    <t>Type of medication usage</t>
+  </si>
+  <si>
+    <t>Indicates where the medication is expected to be consumed or administered.</t>
+  </si>
+  <si>
+    <t>A coded concept describing where the medication administered is expected to occur.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-admin-category|4.0.1</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="type of medication usage"].value</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.medication[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-medication)</t>
+  </si>
+  <si>
+    <t>What was administered</t>
+  </si>
+  <si>
+    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
+  </si>
+  <si>
+    <t>Codes identifying substance or product that can be administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-codes|4.0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=CSM].role[classCode=ADMM]</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>RXA-5-Administered Code</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.medication[x]:medicationReference</t>
+  </si>
+  <si>
+    <t>medicationReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-medication-medicationdispense) &lt;&lt;contained&gt;&gt;
+</t>
+  </si>
+  <si>
+    <t>Reference to the contained medication</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient)
+</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>The person or animal or group receiving the medication.</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>PID-3-Patient ID List</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.subject.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.subject.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.subject.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.subject.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.subject.identifier</t>
+  </si>
+  <si>
     <t xml:space="preserve">Identifier
 </t>
-  </si>
-  <si>
-    <t>MedicationAdministration Identifier</t>
-  </si>
-  <si>
-    <t>Identifiers associated with this Medication Administration that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.</t>
-  </si>
-  <si>
-    <t>This is a business identifier, not a resource identifier.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.identifier.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.identifier.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.identifier.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>urn:ietf:rfc:3986</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.identifier.value</t>
-  </si>
-  <si>
-    <t>Identifier value as UUID</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.instantiates</t>
-  </si>
-  <si>
-    <t>Instantiates protocol or definition</t>
-  </si>
-  <si>
-    <t>A protocol, guideline, orderset, or other definition that was adhered to in whole or in part by this event.</t>
-  </si>
-  <si>
-    <t>Event.instantiates</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=DEFN].target[classCode=unspecified]</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|Procedure)
-</t>
-  </si>
-  <si>
-    <t>Part of referenced event</t>
-  </si>
-  <si>
-    <t>A larger event of which this particular event is a component or step.</t>
-  </si>
-  <si>
-    <t>Event.partOf</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=COMP]/target[classCode=SBADM or PROC,moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.status</t>
-  </si>
-  <si>
-    <t>in-progress | not-done | on-hold | completed | entered-in-error | stopped | unknown</t>
-  </si>
-  <si>
-    <t>Will generally be set to show that the administration has been completed.  For some long running administrations such as infusions, it is possible for an administration to be started but not completed or it may be paused while some other process is under way.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>completed</t>
-  </si>
-  <si>
-    <t>A set of codes indicating the current status of a MedicationAdministration.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-admin-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>RXA-20-Completion Status</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.statusReason</t>
-  </si>
-  <si>
-    <t>Reason administration not performed</t>
-  </si>
-  <si>
-    <t>A code indicating why the administration was not performed.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A set of codes indicating the reason why the MedicationAdministration is negated.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/reason-medication-not-given-codes</t>
-  </si>
-  <si>
-    <t>Event.statusReason</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=RSON]/target[classCode=OBS,moodCode=EVN, code="reason not given"].value</t>
-  </si>
-  <si>
-    <t>RXA-9-Administration Notes / RXA-18 Substance/Treatment Refusal Reason</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.category</t>
-  </si>
-  <si>
-    <t>Type of medication usage</t>
-  </si>
-  <si>
-    <t>Indicates where the medication is expected to be consumed or administered.</t>
-  </si>
-  <si>
-    <t>A coded concept describing where the medication administered is expected to occur.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-admin-category</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="type of medication usage"].value</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x]</t>
-  </si>
-  <si>
-    <t>CodeableConcept
-Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-medication)</t>
-  </si>
-  <si>
-    <t>What was administered</t>
-  </si>
-  <si>
-    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
-  </si>
-  <si>
-    <t>Codes identifying substance or product that can be administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=CSM].role[classCode=ADMM]</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>RXA-5-Administered Code</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x]:medicationReference</t>
-  </si>
-  <si>
-    <t>medicationReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-medication-medicationdispense) &lt;&lt;contained&gt;&gt;
-</t>
-  </si>
-  <si>
-    <t>Reference to the contained medication</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient)
-</t>
-  </si>
-  <si>
-    <t>Patient</t>
-  </si>
-  <si>
-    <t>The person or animal or group receiving the medication.</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>PID-3-Patient ID List</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject.id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject.identifier</t>
   </si>
   <si>
     <t>Logical reference, when literal reference is not known</t>
@@ -1048,7 +891,7 @@
     <t>MedicationAdministration.context</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
+    <t xml:space="preserve">Reference(Encounter|4.0.1|EpisodeOfCare|4.0.1)
 </t>
   </si>
   <si>
@@ -1073,7 +916,7 @@
     <t>MedicationAdministration.supportingInformation</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1171,7 +1014,7 @@
     <t>A code describing the role an individual played in administering the medication.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/med-admin-perform-function</t>
+    <t>http://hl7.org/fhir/ValueSet/med-admin-perform-function|4.0.1</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -1229,7 +1072,7 @@
     <t>A set of codes indicating the reason why the MedicationAdministration was made.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/reason-medication-given-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/reason-medication-given-codes|4.0.1</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1244,7 +1087,7 @@
     <t>MedicationAdministration.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Observation|4.0.1|DiagnosticReport|4.0.1)
 </t>
   </si>
   <si>
@@ -1272,7 +1115,7 @@
     <t>MedicationAdministration.request</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationRequest)
+    <t xml:space="preserve">Reference(MedicationRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -1297,7 +1140,7 @@
     <t>MedicationAdministration.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device)
+    <t xml:space="preserve">Reference(Device|4.0.1)
 </t>
   </si>
   <si>
@@ -1386,7 +1229,7 @@
     <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/approach-site-codes|4.0.1</t>
   </si>
   <si>
     <t>.approachSiteCode</t>
@@ -1693,7 +1536,7 @@
     <t>MedicationAdministration.eventHistory</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Provenance)
+    <t xml:space="preserve">Reference(Provenance|4.0.1)
 </t>
   </si>
   <si>
@@ -2036,7 +1879,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO91"/>
+  <dimension ref="A1:AO83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2064,13 +1907,13 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.390625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.7421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.921875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -3977,7 +3820,7 @@
         <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>80</v>
@@ -3986,16 +3829,16 @@
         <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4046,25 +3889,25 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>80</v>
@@ -4078,14 +3921,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>164</v>
+        <v>80</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -4101,10 +3944,10 @@
         <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>185</v>
@@ -4112,9 +3955,7 @@
       <c r="M18" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="N18" t="s" s="2">
-        <v>167</v>
-      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>80</v>
@@ -4151,19 +3992,19 @@
         <v>80</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -4175,13 +4016,13 @@
         <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>80</v>
+        <v>187</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>80</v>
@@ -4206,7 +4047,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>89</v>
@@ -4232,15 +4073,13 @@
       <c r="N19" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="O19" t="s" s="2">
-        <v>193</v>
-      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>80</v>
@@ -4282,10 +4121,10 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>89</v>
@@ -4297,16 +4136,16 @@
         <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>80</v>
+        <v>197</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>198</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>80</v>
@@ -4314,10 +4153,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4328,7 +4167,7 @@
         <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>80</v>
@@ -4337,23 +4176,19 @@
         <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="O20" t="s" s="2">
         <v>204</v>
       </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>80</v>
       </c>
@@ -4401,13 +4236,13 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>80</v>
@@ -4416,16 +4251,16 @@
         <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>80</v>
@@ -4433,10 +4268,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4444,7 +4279,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>89</v>
@@ -4456,54 +4291,50 @@
         <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N21" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="O21" t="s" s="2">
-        <v>214</v>
-      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="Z21" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="S21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AA21" t="s" s="2">
         <v>80</v>
       </c>
@@ -4520,7 +4351,7 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
@@ -4538,13 +4369,13 @@
         <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>219</v>
+        <v>80</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>80</v>
@@ -4552,10 +4383,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4578,16 +4409,16 @@
         <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>179</v>
+        <v>218</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4601,46 +4432,44 @@
         <v>80</v>
       </c>
       <c r="T22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB22" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="U22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>80</v>
-      </c>
+      <c r="AC22" s="2"/>
       <c r="AD22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>89</v>
@@ -4652,16 +4481,16 @@
         <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>226</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>80</v>
@@ -4669,12 +4498,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="D23" t="s" s="2">
         <v>80</v>
       </c>
@@ -4695,15 +4526,17 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>80</v>
@@ -4752,10 +4585,10 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>89</v>
@@ -4767,16 +4600,16 @@
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>80</v>
@@ -4784,10 +4617,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4795,7 +4628,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>89</v>
@@ -4810,17 +4643,15 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L24" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>239</v>
-      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>80</v>
@@ -4869,10 +4700,10 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>89</v>
@@ -4884,16 +4715,16 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>80</v>
+        <v>237</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>80</v>
@@ -4901,10 +4732,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4915,7 +4746,7 @@
         <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>80</v>
@@ -4924,16 +4755,16 @@
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>103</v>
+        <v>242</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4984,25 +4815,25 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>80</v>
@@ -5016,14 +4847,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5039,18 +4870,20 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L26" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N26" s="2"/>
+      <c r="N26" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>80</v>
@@ -5087,19 +4920,19 @@
         <v>80</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -5111,13 +4944,13 @@
         <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>252</v>
+        <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>80</v>
@@ -5131,10 +4964,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5151,22 +4984,22 @@
         <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>109</v>
+        <v>242</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5174,7 +5007,7 @@
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>258</v>
+        <v>80</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>80</v>
@@ -5192,13 +5025,13 @@
         <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>259</v>
+        <v>80</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>260</v>
+        <v>80</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>80</v>
@@ -5216,31 +5049,31 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>80</v>
+        <v>257</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>261</v>
+        <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>262</v>
+        <v>132</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>263</v>
+        <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>264</v>
+        <v>80</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>80</v>
@@ -5248,10 +5081,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5262,7 +5095,7 @@
         <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>80</v>
@@ -5271,18 +5104,20 @@
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>200</v>
+        <v>103</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>80</v>
@@ -5307,13 +5142,13 @@
         <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>80</v>
@@ -5337,7 +5172,7 @@
         <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>80</v>
@@ -5346,16 +5181,16 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>271</v>
+        <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>272</v>
+        <v>132</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>273</v>
+        <v>80</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>80</v>
@@ -5363,10 +5198,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5386,18 +5221,20 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>200</v>
+        <v>267</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>80</v>
@@ -5422,13 +5259,13 @@
         <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>277</v>
+        <v>80</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>278</v>
+        <v>80</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>80</v>
@@ -5446,7 +5283,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -5464,7 +5301,7 @@
         <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
@@ -5478,10 +5315,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5489,7 +5326,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>89</v>
@@ -5504,16 +5341,16 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5539,32 +5376,34 @@
         <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>268</v>
+        <v>80</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>285</v>
+        <v>80</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>286</v>
+        <v>80</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AC30" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>89</v>
@@ -5576,16 +5415,16 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>288</v>
+        <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>289</v>
+        <v>132</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>291</v>
+        <v>80</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>80</v>
@@ -5593,14 +5432,12 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5618,20 +5455,18 @@
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -5680,10 +5515,10 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>89</v>
@@ -5695,16 +5530,16 @@
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>80</v>
@@ -5712,10 +5547,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5723,10 +5558,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>80</v>
@@ -5735,16 +5570,16 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5795,13 +5630,13 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>80</v>
@@ -5810,16 +5645,16 @@
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>303</v>
+        <v>80</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>80</v>
@@ -5827,10 +5662,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5838,7 +5673,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>89</v>
@@ -5850,16 +5685,16 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>179</v>
+        <v>292</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>180</v>
+        <v>293</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>181</v>
+        <v>294</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5910,10 +5745,10 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>89</v>
@@ -5922,19 +5757,19 @@
         <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>80</v>
+        <v>295</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>183</v>
+        <v>296</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>80</v>
+        <v>297</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>80</v>
+        <v>298</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>80</v>
@@ -5942,21 +5777,21 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>164</v>
+        <v>80</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>80</v>
@@ -5965,20 +5800,18 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>134</v>
+        <v>300</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>185</v>
+        <v>301</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -6015,19 +5848,19 @@
         <v>80</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>188</v>
+        <v>299</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -6039,19 +5872,19 @@
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>80</v>
+        <v>303</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>183</v>
+        <v>304</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>80</v>
+        <v>305</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>80</v>
@@ -6059,10 +5892,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6070,7 +5903,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>89</v>
@@ -6082,20 +5915,18 @@
         <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>179</v>
+        <v>242</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>307</v>
+        <v>243</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -6144,7 +5975,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>310</v>
+        <v>245</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6153,16 +5984,16 @@
         <v>89</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>311</v>
+        <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>132</v>
+        <v>246</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
@@ -6176,21 +6007,21 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>80</v>
@@ -6199,19 +6030,19 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>313</v>
+        <v>248</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>314</v>
+        <v>249</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>315</v>
+        <v>167</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6237,13 +6068,13 @@
         <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>316</v>
+        <v>80</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>317</v>
+        <v>80</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>80</v>
@@ -6261,25 +6092,25 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>318</v>
+        <v>251</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>132</v>
+        <v>246</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6293,44 +6124,46 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6378,25 +6211,25 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>324</v>
+        <v>132</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6410,10 +6243,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6433,20 +6266,18 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6471,13 +6302,13 @@
         <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>80</v>
+        <v>317</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>80</v>
+        <v>318</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>80</v>
@@ -6495,7 +6326,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6510,10 +6341,10 @@
         <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>80</v>
+        <v>319</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>132</v>
+        <v>320</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
@@ -6527,10 +6358,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6538,7 +6369,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>89</v>
@@ -6550,16 +6381,16 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6610,10 +6441,10 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>89</v>
@@ -6625,16 +6456,16 @@
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>336</v>
+        <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>337</v>
+        <v>80</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>80</v>
@@ -6642,10 +6473,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6656,7 +6487,7 @@
         <v>81</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
@@ -6668,13 +6499,13 @@
         <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>339</v>
+        <v>242</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>340</v>
+        <v>243</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>341</v>
+        <v>244</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6725,28 +6556,28 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>338</v>
+        <v>245</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>342</v>
+        <v>246</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>336</v>
+        <v>80</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -6757,21 +6588,21 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
@@ -6780,18 +6611,20 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>345</v>
+        <v>248</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -6828,43 +6661,43 @@
         <v>80</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>343</v>
+        <v>251</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>347</v>
+        <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>348</v>
+        <v>246</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>349</v>
+        <v>80</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>80</v>
@@ -6872,10 +6705,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6898,15 +6731,17 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>353</v>
+        <v>253</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>80</v>
@@ -6955,31 +6790,31 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>351</v>
+        <v>256</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>80</v>
+        <v>257</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>356</v>
+        <v>132</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>357</v>
+        <v>80</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>358</v>
+        <v>80</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>80</v>
@@ -6987,10 +6822,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7010,18 +6845,20 @@
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>179</v>
+        <v>103</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>180</v>
+        <v>259</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>80</v>
@@ -7046,13 +6883,13 @@
         <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>80</v>
+        <v>262</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>80</v>
+        <v>263</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>80</v>
+        <v>264</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>80</v>
@@ -7070,7 +6907,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>182</v>
+        <v>265</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7082,13 +6919,13 @@
         <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>183</v>
+        <v>132</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>
@@ -7102,21 +6939,21 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>164</v>
+        <v>80</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>80</v>
@@ -7125,19 +6962,19 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>134</v>
+        <v>267</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>185</v>
+        <v>268</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>186</v>
+        <v>269</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>167</v>
+        <v>270</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7187,25 +7024,25 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>188</v>
+        <v>271</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>183</v>
+        <v>272</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
@@ -7219,46 +7056,44 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>362</v>
+        <v>80</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>134</v>
+        <v>242</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>363</v>
+        <v>274</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>364</v>
+        <v>275</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7306,19 +7141,19 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>365</v>
+        <v>277</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
@@ -7338,10 +7173,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7352,7 +7187,7 @@
         <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
@@ -7364,13 +7199,13 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>367</v>
+        <v>334</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7397,13 +7232,13 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>268</v>
+        <v>205</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -7421,13 +7256,13 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>80</v>
@@ -7436,16 +7271,16 @@
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>372</v>
+        <v>339</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -7453,10 +7288,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7464,10 +7299,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>80</v>
@@ -7476,18 +7311,20 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7536,13 +7373,13 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>80</v>
@@ -7551,27 +7388,27 @@
         <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>377</v>
+        <v>346</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>378</v>
+        <v>347</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>80</v>
+        <v>349</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7594,15 +7431,17 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>179</v>
+        <v>351</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>180</v>
+        <v>352</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7651,7 +7490,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7663,19 +7502,19 @@
         <v>80</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>80</v>
+        <v>355</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>183</v>
+        <v>356</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>80</v>
+        <v>357</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>80</v>
@@ -7683,14 +7522,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>164</v>
+        <v>80</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7709,17 +7548,15 @@
         <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>134</v>
+        <v>359</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>185</v>
+        <v>360</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -7756,19 +7593,19 @@
         <v>80</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>188</v>
+        <v>358</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -7780,19 +7617,19 @@
         <v>80</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>183</v>
+        <v>362</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>80</v>
+        <v>363</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>80</v>
@@ -7800,10 +7637,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7811,10 +7648,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
@@ -7823,20 +7660,18 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>179</v>
+        <v>365</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>307</v>
+        <v>366</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -7885,25 +7720,25 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>310</v>
+        <v>364</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>311</v>
+        <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>80</v>
+        <v>368</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>132</v>
+        <v>369</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
@@ -7917,10 +7752,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7928,7 +7763,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>89</v>
@@ -7940,20 +7775,18 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>103</v>
+        <v>300</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>313</v>
+        <v>371</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -7978,13 +7811,13 @@
         <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>316</v>
+        <v>80</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>317</v>
+        <v>80</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>80</v>
@@ -8002,7 +7835,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>318</v>
+        <v>370</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8014,13 +7847,13 @@
         <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>101</v>
+        <v>373</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>132</v>
+        <v>374</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>80</v>
@@ -8034,10 +7867,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8057,20 +7890,18 @@
         <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>171</v>
+        <v>242</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>320</v>
+        <v>243</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -8119,7 +7950,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>323</v>
+        <v>245</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8131,13 +7962,13 @@
         <v>80</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>324</v>
+        <v>246</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
@@ -8151,21 +7982,21 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>80</v>
@@ -8174,19 +8005,19 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>326</v>
+        <v>248</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>327</v>
+        <v>249</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>328</v>
+        <v>167</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8236,25 +8067,25 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>329</v>
+        <v>251</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>132</v>
+        <v>246</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
@@ -8268,14 +8099,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8288,22 +8119,26 @@
         <v>80</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>200</v>
+        <v>134</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>386</v>
+        <v>311</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8327,13 +8162,13 @@
         <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>268</v>
+        <v>80</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>388</v>
+        <v>80</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>389</v>
+        <v>80</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>80</v>
@@ -8351,7 +8186,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>385</v>
+        <v>313</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8363,19 +8198,19 @@
         <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>390</v>
+        <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>391</v>
+        <v>132</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>392</v>
+        <v>80</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>80</v>
@@ -8383,10 +8218,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8397,7 +8232,7 @@
         <v>81</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
@@ -8409,17 +8244,15 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>394</v>
+        <v>242</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8468,13 +8301,13 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>80</v>
@@ -8483,27 +8316,27 @@
         <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>398</v>
+        <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>401</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8526,16 +8359,16 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>403</v>
+        <v>202</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8561,13 +8394,13 @@
         <v>80</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>80</v>
+        <v>386</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>80</v>
+        <v>387</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>80</v>
@@ -8585,7 +8418,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -8600,16 +8433,16 @@
         <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>407</v>
+        <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>80</v>
@@ -8617,10 +8450,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8631,7 +8464,7 @@
         <v>81</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
@@ -8643,13 +8476,13 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>411</v>
+        <v>202</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8676,13 +8509,11 @@
         <v>80</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="Y57" s="2"/>
       <c r="Z57" t="s" s="2">
-        <v>80</v>
+        <v>393</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>80</v>
@@ -8700,13 +8531,13 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>80</v>
@@ -8718,13 +8549,13 @@
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>80</v>
@@ -8732,10 +8563,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8746,7 +8577,7 @@
         <v>81</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
@@ -8758,13 +8589,13 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>417</v>
+        <v>242</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>418</v>
+        <v>243</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>419</v>
+        <v>244</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8815,25 +8646,25 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>416</v>
+        <v>245</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>420</v>
+        <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>421</v>
+        <v>246</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
@@ -8847,21 +8678,21 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
@@ -8873,15 +8704,17 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>352</v>
+        <v>134</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>423</v>
+        <v>248</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -8918,37 +8751,37 @@
         <v>80</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>422</v>
+        <v>251</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>425</v>
+        <v>140</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>426</v>
+        <v>246</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
@@ -8960,12 +8793,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>427</v>
+        <v>398</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>427</v>
+        <v>398</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8973,31 +8806,35 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>179</v>
+        <v>399</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
       </c>
@@ -9045,31 +8882,31 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>182</v>
+        <v>404</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>183</v>
+        <v>405</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>80</v>
+        <v>406</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>80</v>
@@ -9077,21 +8914,21 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>164</v>
+        <v>80</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>80</v>
@@ -9103,17 +8940,15 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>134</v>
+        <v>242</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>185</v>
+        <v>243</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -9162,25 +8997,25 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>188</v>
+        <v>245</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>183</v>
+        <v>246</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
@@ -9194,14 +9029,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>362</v>
+        <v>164</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9214,26 +9049,24 @@
         <v>80</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>363</v>
+        <v>248</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>364</v>
+        <v>249</v>
       </c>
       <c r="N62" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="O62" t="s" s="2">
-        <v>168</v>
-      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>80</v>
       </c>
@@ -9269,19 +9102,19 @@
         <v>80</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>365</v>
+        <v>251</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9299,7 +9132,7 @@
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>132</v>
+        <v>246</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
@@ -9313,10 +9146,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9324,7 +9157,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>89</v>
@@ -9336,19 +9169,23 @@
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>179</v>
+        <v>103</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9396,7 +9233,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -9414,13 +9251,13 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>80</v>
+        <v>416</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>80</v>
@@ -9428,10 +9265,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9451,19 +9288,19 @@
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9489,13 +9326,13 @@
         <v>80</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>268</v>
+        <v>80</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>438</v>
+        <v>80</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>439</v>
+        <v>80</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>80</v>
@@ -9513,7 +9350,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -9531,13 +9368,13 @@
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>80</v>
@@ -9545,10 +9382,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9556,7 +9393,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>89</v>
@@ -9568,19 +9405,21 @@
         <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>200</v>
+        <v>109</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
       </c>
@@ -9604,11 +9443,13 @@
         <v>80</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="Y65" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z65" t="s" s="2">
-        <v>445</v>
+        <v>80</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>80</v>
@@ -9626,7 +9467,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
@@ -9644,13 +9485,13 @@
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>80</v>
@@ -9658,10 +9499,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9681,19 +9522,21 @@
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>179</v>
+        <v>242</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>180</v>
+        <v>432</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>181</v>
+        <v>433</v>
       </c>
       <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
       </c>
@@ -9741,7 +9584,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>182</v>
+        <v>435</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -9753,19 +9596,19 @@
         <v>80</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>183</v>
+        <v>436</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>80</v>
+        <v>437</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>80</v>
@@ -9773,21 +9616,21 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>164</v>
+        <v>80</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>80</v>
@@ -9796,21 +9639,23 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>134</v>
+        <v>439</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>185</v>
+        <v>440</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>186</v>
+        <v>441</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O67" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
       </c>
@@ -9846,43 +9691,43 @@
         <v>80</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>188</v>
+        <v>444</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>183</v>
+        <v>445</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>80</v>
+        <v>446</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>80</v>
@@ -9890,10 +9735,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9901,13 +9746,13 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>80</v>
@@ -9916,19 +9761,19 @@
         <v>90</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="O68" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>80</v>
@@ -9977,13 +9822,13 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>80</v>
@@ -9995,13 +9840,13 @@
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>80</v>
@@ -10009,10 +9854,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10035,15 +9880,17 @@
         <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>180</v>
+        <v>456</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>458</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -10068,13 +9915,11 @@
         <v>80</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="Y69" s="2"/>
       <c r="Z69" t="s" s="2">
-        <v>80</v>
+        <v>459</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>80</v>
@@ -10092,7 +9937,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>182</v>
+        <v>455</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
@@ -10104,19 +9949,19 @@
         <v>80</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>183</v>
+        <v>460</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>80</v>
+        <v>461</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>80</v>
@@ -10124,21 +9969,21 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>164</v>
+        <v>80</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>80</v>
@@ -10150,17 +9995,15 @@
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>134</v>
+        <v>242</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>185</v>
+        <v>243</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -10197,37 +10040,37 @@
         <v>80</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>188</v>
+        <v>245</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>183</v>
+        <v>246</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>80</v>
@@ -10241,21 +10084,21 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>80</v>
@@ -10264,23 +10107,21 @@
         <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>462</v>
+        <v>248</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>463</v>
+        <v>249</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>465</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>80</v>
       </c>
@@ -10316,43 +10157,43 @@
         <v>80</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>466</v>
+        <v>251</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>467</v>
+        <v>246</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>468</v>
+        <v>80</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>80</v>
@@ -10360,10 +10201,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10371,10 +10212,10 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>80</v>
@@ -10386,18 +10227,20 @@
         <v>90</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>179</v>
+        <v>399</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>470</v>
+        <v>400</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>471</v>
+        <v>401</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="O72" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>80</v>
       </c>
@@ -10445,13 +10288,13 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>473</v>
+        <v>404</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>80</v>
@@ -10463,13 +10306,13 @@
         <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>474</v>
+        <v>405</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>475</v>
+        <v>406</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>80</v>
@@ -10477,10 +10320,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10488,7 +10331,7 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>89</v>
@@ -10500,21 +10343,19 @@
         <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>109</v>
+        <v>242</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>477</v>
+        <v>243</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>478</v>
+        <v>244</v>
       </c>
       <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>479</v>
-      </c>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>80</v>
       </c>
@@ -10562,7 +10403,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>480</v>
+        <v>245</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
@@ -10574,19 +10415,19 @@
         <v>80</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>481</v>
+        <v>246</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>482</v>
+        <v>80</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>80</v>
@@ -10594,21 +10435,21 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>80</v>
@@ -10617,21 +10458,21 @@
         <v>80</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>484</v>
+        <v>248</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>80</v>
       </c>
@@ -10667,43 +10508,43 @@
         <v>80</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>487</v>
+        <v>251</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>488</v>
+        <v>246</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>489</v>
+        <v>80</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>80</v>
@@ -10711,10 +10552,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>490</v>
+        <v>467</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>490</v>
+        <v>467</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10722,7 +10563,7 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>89</v>
@@ -10737,19 +10578,19 @@
         <v>90</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>491</v>
+        <v>103</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>492</v>
+        <v>410</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>493</v>
+        <v>411</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>494</v>
+        <v>412</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>495</v>
+        <v>413</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>80</v>
@@ -10798,7 +10639,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>496</v>
+        <v>414</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>81</v>
@@ -10816,13 +10657,13 @@
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>497</v>
+        <v>415</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>498</v>
+        <v>416</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>80</v>
@@ -10830,10 +10671,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10856,20 +10697,18 @@
         <v>90</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>179</v>
+        <v>242</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>500</v>
+        <v>418</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>501</v>
+        <v>419</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>80</v>
       </c>
@@ -10917,7 +10756,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>504</v>
+        <v>421</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>81</v>
@@ -10935,13 +10774,13 @@
         <v>80</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>505</v>
+        <v>422</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>506</v>
+        <v>423</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>80</v>
@@ -10949,10 +10788,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>507</v>
+        <v>469</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>507</v>
+        <v>469</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10960,7 +10799,7 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>89</v>
@@ -10972,21 +10811,21 @@
         <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>200</v>
+        <v>109</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>508</v>
+        <v>425</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="O77" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>80</v>
       </c>
@@ -11010,11 +10849,13 @@
         <v>80</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="Y77" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z77" t="s" s="2">
-        <v>511</v>
+        <v>80</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>80</v>
@@ -11032,7 +10873,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>507</v>
+        <v>428</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>81</v>
@@ -11050,13 +10891,13 @@
         <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>512</v>
+        <v>429</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>513</v>
+        <v>430</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>80</v>
@@ -11064,10 +10905,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>514</v>
+        <v>470</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>514</v>
+        <v>470</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11087,19 +10928,21 @@
         <v>80</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>179</v>
+        <v>242</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>180</v>
+        <v>432</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>181</v>
+        <v>433</v>
       </c>
       <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>80</v>
       </c>
@@ -11147,7 +10990,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>182</v>
+        <v>435</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>81</v>
@@ -11159,19 +11002,19 @@
         <v>80</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>183</v>
+        <v>436</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>80</v>
+        <v>437</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>80</v>
@@ -11179,21 +11022,21 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>515</v>
+        <v>471</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>515</v>
+        <v>471</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>164</v>
+        <v>80</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>80</v>
@@ -11202,21 +11045,23 @@
         <v>80</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>134</v>
+        <v>439</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>185</v>
+        <v>440</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>186</v>
+        <v>441</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O79" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>80</v>
       </c>
@@ -11252,43 +11097,43 @@
         <v>80</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AC79" t="s" s="2">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="AD79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>188</v>
+        <v>444</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>183</v>
+        <v>445</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>80</v>
+        <v>446</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>80</v>
@@ -11296,10 +11141,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>516</v>
+        <v>472</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>516</v>
+        <v>472</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11307,10 +11152,10 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>80</v>
@@ -11322,19 +11167,19 @@
         <v>90</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="O80" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>80</v>
@@ -11383,13 +11228,13 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>80</v>
@@ -11401,24 +11246,24 @@
         <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
-        <v>517</v>
+        <v>473</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>517</v>
+        <v>473</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11432,7 +11277,7 @@
         <v>89</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>80</v>
@@ -11441,15 +11286,17 @@
         <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>179</v>
+        <v>474</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>180</v>
+        <v>475</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>477</v>
+      </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>80</v>
@@ -11498,7 +11345,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>182</v>
+        <v>473</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>81</v>
@@ -11510,19 +11357,19 @@
         <v>80</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>183</v>
+        <v>478</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>80</v>
+        <v>479</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>80</v>
@@ -11530,21 +11377,21 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>518</v>
+        <v>480</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>518</v>
+        <v>480</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>164</v>
+        <v>80</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>80</v>
@@ -11556,16 +11403,16 @@
         <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>134</v>
+        <v>481</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>185</v>
+        <v>482</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>186</v>
+        <v>483</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>167</v>
+        <v>484</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11603,43 +11450,43 @@
         <v>80</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="AD82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>188</v>
+        <v>480</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>183</v>
+        <v>485</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>80</v>
+        <v>486</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>80</v>
@@ -11647,10 +11494,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>519</v>
+        <v>487</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>519</v>
+        <v>487</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11658,10 +11505,10 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>80</v>
@@ -11670,23 +11517,21 @@
         <v>80</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>103</v>
+        <v>488</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>462</v>
+        <v>489</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>463</v>
+        <v>490</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>465</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>80</v>
       </c>
@@ -11734,13 +11579,13 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>466</v>
+        <v>487</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>80</v>
@@ -11752,970 +11597,30 @@
         <v>80</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>467</v>
+        <v>492</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>468</v>
+        <v>80</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="O84" s="2"/>
-      <c r="P84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AO84" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="P85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q85" s="2"/>
-      <c r="R85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N86" s="2"/>
-      <c r="O86" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="P86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q86" s="2"/>
-      <c r="R86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="P87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q87" s="2"/>
-      <c r="R87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AO87" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="P88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q88" s="2"/>
-      <c r="R88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AO88" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="O89" s="2"/>
-      <c r="P89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q89" s="2"/>
-      <c r="R89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="AO89" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="O90" s="2"/>
-      <c r="P90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q90" s="2"/>
-      <c r="R90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="AO90" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E91" s="2"/>
-      <c r="F91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="O91" s="2"/>
-      <c r="P91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q91" s="2"/>
-      <c r="R91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO91" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO91">
-    <filterColumn colId="6">
+  <autoFilter ref="A1:AO83">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI90">
+  <conditionalFormatting sqref="A2:AI82">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
